--- a/reports/Report_status_2022-12-27_2023-01-02_1672746312.xlsx
+++ b/reports/Report_status_2022-12-27_2023-01-02_1672746312.xlsx
@@ -6617,9 +6617,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -6691,7 +6692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6712,6 +6713,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6721,6 +6726,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -6731,8 +6745,8 @@
   </sheetPr>
   <dimension ref="A1:AF481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M:M"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6806,7 +6820,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -17561,9 +17575,6 @@
       <c r="L112" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M112" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N112" s="1" t="n">
         <v>0</v>
       </c>
@@ -22178,9 +22189,6 @@
       <c r="L160" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M160" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N160" s="3" t="s">
         <v>860</v>
       </c>
@@ -25762,12 +25770,8 @@
       <c r="K197" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="L197" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M197" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
       <c r="N197" s="1" t="n">
         <v>0</v>
       </c>
@@ -25857,12 +25861,8 @@
       <c r="K198" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="L198" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M198" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L198" s="5"/>
+      <c r="M198" s="5"/>
       <c r="N198" s="1" t="n">
         <v>0</v>
       </c>
@@ -27306,9 +27306,6 @@
       <c r="L213" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M213" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N213" s="3" t="s">
         <v>1082</v>
       </c>
@@ -31950,9 +31947,6 @@
       <c r="L261" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M261" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N261" s="1" t="n">
         <v>0</v>
       </c>
@@ -33681,9 +33675,6 @@
       <c r="L279" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M279" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N279" s="1" t="n">
         <v>0</v>
       </c>
@@ -34070,9 +34061,6 @@
       <c r="L283" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M283" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N283" s="1" t="n">
         <v>0</v>
       </c>
@@ -35991,9 +35979,6 @@
       <c r="L303" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M303" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N303" s="3" t="s">
         <v>863</v>
       </c>
@@ -38975,9 +38960,6 @@
       <c r="L334" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M334" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N334" s="1" t="n">
         <v>0</v>
       </c>
@@ -39937,9 +39919,6 @@
       <c r="L344" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M344" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N344" s="1" t="n">
         <v>0</v>
       </c>
@@ -43399,9 +43378,6 @@
       <c r="L380" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M380" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N380" s="1" t="n">
         <v>0</v>
       </c>
@@ -44174,9 +44150,6 @@
       <c r="L388" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M388" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N388" s="1" t="n">
         <v>0</v>
       </c>
@@ -44943,9 +44916,6 @@
       <c r="L396" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M396" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N396" s="1" t="n">
         <v>0</v>
       </c>
@@ -47363,9 +47333,6 @@
       <c r="L421" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="M421" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N421" s="1" t="n">
         <v>0</v>
       </c>
@@ -47940,9 +47907,6 @@
         <v>51</v>
       </c>
       <c r="L427" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M427" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N427" s="1" t="n">
